--- a/_PowerPoints/2nd Semester/Unit 8 Bridge Building/B2 Projects/Summative Sheet.xlsx
+++ b/_PowerPoints/2nd Semester/Unit 8 Bridge Building/B2 Projects/Summative Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="55">
   <si>
     <t>Jordan B</t>
   </si>
@@ -180,6 +180,15 @@
   </si>
   <si>
     <t>Turned in Blueprint [scale]</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -728,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -814,14 +823,28 @@
       <c r="C4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="1">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3.5</v>
+      </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="19"/>
+      <c r="K4" s="19">
+        <v>3</v>
+      </c>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -832,14 +855,28 @@
       <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="1">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3.5</v>
+      </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="19"/>
+      <c r="K5" s="19">
+        <v>3</v>
+      </c>
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -864,14 +901,28 @@
       <c r="C7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="1">
+        <v>40</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="19"/>
+      <c r="K7" s="19">
+        <v>4</v>
+      </c>
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -882,14 +933,28 @@
       <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="1">
+        <v>40</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="19"/>
+      <c r="K8" s="19">
+        <v>4</v>
+      </c>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -900,14 +965,28 @@
       <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="1">
+        <v>40</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="19"/>
+      <c r="K9" s="19">
+        <v>4</v>
+      </c>
       <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -918,14 +997,28 @@
       <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="1">
+        <v>40</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="19"/>
+      <c r="K10" s="19">
+        <v>4</v>
+      </c>
       <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -950,11 +1043,19 @@
       <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="1">
+        <v>40</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="3"/>
       <c r="K12" s="19"/>
@@ -968,11 +1069,19 @@
       <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="1">
+        <v>40</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="3"/>
       <c r="K13" s="19"/>
@@ -986,11 +1095,19 @@
       <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="1">
+        <v>40</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="3"/>
       <c r="K14" s="19"/>
@@ -1018,14 +1135,28 @@
       <c r="C16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="1">
+        <v>37</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4</v>
+      </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="19"/>
+      <c r="K16" s="19">
+        <v>3.5</v>
+      </c>
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -1036,14 +1167,28 @@
       <c r="C17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="1">
+        <v>37</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4</v>
+      </c>
       <c r="J17" s="3"/>
-      <c r="K17" s="19"/>
+      <c r="K17" s="19">
+        <v>3.5</v>
+      </c>
       <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -1054,14 +1199,28 @@
       <c r="C18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="1">
+        <v>37</v>
+      </c>
+      <c r="I18" s="1">
+        <v>4</v>
+      </c>
       <c r="J18" s="3"/>
-      <c r="K18" s="19"/>
+      <c r="K18" s="19">
+        <v>4</v>
+      </c>
       <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -1072,14 +1231,28 @@
       <c r="C19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="1">
+        <v>37</v>
+      </c>
+      <c r="I19" s="1">
+        <v>4</v>
+      </c>
       <c r="J19" s="3"/>
-      <c r="K19" s="19"/>
+      <c r="K19" s="19">
+        <v>3.5</v>
+      </c>
       <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -1090,14 +1263,28 @@
       <c r="C20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="1">
+        <v>37</v>
+      </c>
+      <c r="I20" s="1">
+        <v>4</v>
+      </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="19"/>
+      <c r="K20" s="19">
+        <v>4</v>
+      </c>
       <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -1108,14 +1295,28 @@
       <c r="C21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="1">
+        <v>37</v>
+      </c>
+      <c r="I21" s="1">
+        <v>4</v>
+      </c>
       <c r="J21" s="3"/>
-      <c r="K21" s="19"/>
+      <c r="K21" s="19">
+        <v>3</v>
+      </c>
       <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -1140,14 +1341,28 @@
       <c r="C23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="J23" s="3"/>
-      <c r="K23" s="19"/>
+      <c r="K23" s="19" t="s">
+        <v>53</v>
+      </c>
       <c r="L23" s="8"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -1158,14 +1373,28 @@
       <c r="C24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="1">
+        <v>40</v>
+      </c>
+      <c r="I24" s="1">
+        <v>4</v>
+      </c>
       <c r="J24" s="3"/>
-      <c r="K24" s="19"/>
+      <c r="K24" s="19">
+        <v>4</v>
+      </c>
       <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -1176,14 +1405,28 @@
       <c r="C25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="J25" s="3"/>
-      <c r="K25" s="19"/>
+      <c r="K25" s="19" t="s">
+        <v>53</v>
+      </c>
       <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -1194,14 +1437,28 @@
       <c r="C26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="J26" s="3"/>
-      <c r="K26" s="19"/>
+      <c r="K26" s="19" t="s">
+        <v>53</v>
+      </c>
       <c r="L26" s="8"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -1232,14 +1489,22 @@
       <c r="E28" s="1">
         <v>4</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="1">
+        <v>40</v>
+      </c>
       <c r="I28" s="1">
         <v>3.5</v>
       </c>
       <c r="J28" s="3"/>
-      <c r="K28" s="19"/>
+      <c r="K28" s="19">
+        <v>4</v>
+      </c>
       <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -1256,14 +1521,22 @@
       <c r="E29" s="1">
         <v>4</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="1">
+        <v>40</v>
+      </c>
       <c r="I29" s="1">
         <v>3.5</v>
       </c>
       <c r="J29" s="3"/>
-      <c r="K29" s="19"/>
+      <c r="K29" s="19">
+        <v>4</v>
+      </c>
       <c r="L29" s="8"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -1280,14 +1553,22 @@
       <c r="E30" s="1">
         <v>4</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="1">
+        <v>40</v>
+      </c>
       <c r="I30" s="1">
         <v>3.5</v>
       </c>
       <c r="J30" s="3"/>
-      <c r="K30" s="19"/>
+      <c r="K30" s="19">
+        <v>4</v>
+      </c>
       <c r="L30" s="8"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -1304,14 +1585,22 @@
       <c r="E31" s="1">
         <v>4</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="1">
+        <v>40</v>
+      </c>
       <c r="I31" s="1">
         <v>3.5</v>
       </c>
       <c r="J31" s="3"/>
-      <c r="K31" s="19"/>
+      <c r="K31" s="19">
+        <v>3.5</v>
+      </c>
       <c r="L31" s="8"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -1341,7 +1630,9 @@
         <v>48</v>
       </c>
       <c r="J32" s="3"/>
-      <c r="K32" s="19"/>
+      <c r="K32" s="19" t="s">
+        <v>53</v>
+      </c>
       <c r="L32" s="8"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -1378,12 +1669,16 @@
       <c r="G34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1">
+        <v>7</v>
+      </c>
       <c r="I34" s="1">
         <v>3.5</v>
       </c>
       <c r="J34" s="3"/>
-      <c r="K34" s="19"/>
+      <c r="K34" s="19">
+        <v>3.5</v>
+      </c>
       <c r="L34" s="8"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -1408,14 +1703,28 @@
       <c r="C36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="J36" s="10"/>
-      <c r="K36" s="19"/>
+      <c r="K36" s="19" t="s">
+        <v>53</v>
+      </c>
       <c r="L36" s="8"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">

--- a/_PowerPoints/2nd Semester/Unit 8 Bridge Building/B2 Projects/Summative Sheet.xlsx
+++ b/_PowerPoints/2nd Semester/Unit 8 Bridge Building/B2 Projects/Summative Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="55">
   <si>
     <t>Jordan B</t>
   </si>
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1049,16 +1049,22 @@
       <c r="E12" s="1">
         <v>4</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="G12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="1">
         <v>40</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1">
+        <v>4</v>
+      </c>
       <c r="J12" s="3"/>
-      <c r="K12" s="19"/>
+      <c r="K12" s="19">
+        <v>4</v>
+      </c>
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -1075,16 +1081,22 @@
       <c r="E13" s="1">
         <v>4</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="G13" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H13" s="1">
         <v>40</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1">
+        <v>4</v>
+      </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="19"/>
+      <c r="K13" s="19">
+        <v>4</v>
+      </c>
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -1101,16 +1113,22 @@
       <c r="E14" s="1">
         <v>4</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="G14" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="1">
         <v>40</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1">
+        <v>4</v>
+      </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="19"/>
+      <c r="K14" s="19">
+        <v>4</v>
+      </c>
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
